--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1555.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1555.xlsx
@@ -354,10 +354,10 @@
         <v>1.450751538203821</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.219182443240143</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1555.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1555.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.066860801618142</v>
+        <v>1.396201729774475</v>
       </c>
       <c r="B1">
-        <v>1.450751538203821</v>
+        <v>1.675781965255737</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.985039234161377</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.900041818618774</v>
       </c>
       <c r="E1">
-        <v>1.219182443240143</v>
+        <v>0.8592122793197632</v>
       </c>
     </row>
   </sheetData>
